--- a/ptt_C_chat.xlsx
+++ b/ptt_C_chat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,12 +453,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 芙莉蓮的魔法師太強了吧 職業平衡呢？</t>
+          <t>Re: [閒聊] 芙莉蓮新篇章會死人嗎（雷）</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -470,12 +470,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 迷入幻想鄉的藥師少女</t>
+          <t>[閒聊] 人中之龍8  山井豐一派</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,12 +487,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 秒殺外掛男主有弱點嗎？</t>
+          <t>[閒聊] 蘭特找修塔爾克訴苦</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,12 +504,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 芙莉蓮的魔法師太強了吧 職業平衡呢？</t>
+          <t>[24冬] 非自願的不死冒險者 09：可愛愛</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -521,12 +521,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[Vtub] 3/4同接鬥蟲</t>
+          <t>Re: [閒聊] 金庸怎想到玉女心經這種色色的招式流派</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -538,12 +538,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[閒聊] 公主大人,接下來是拷問時間人氣投票</t>
+          <t>Re: [閒聊] Unlight後期魔角頻出會懷念帕茉時期嗎</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,12 +555,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Re: [討論] 有沒有通靈集氣還被打爆的作品</t>
+          <t>[問題] 小櫻到底喜不喜歡鳴人啊？</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,12 +572,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[Holo] 佩可拉這個Build感覺打蒙格好吃力</t>
+          <t>[閒聊] 一直放謎語對監督有什麼好處？</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[閒聊] 山田家怎麼只生一胎？</t>
+          <t>[閒聊] Yuzu推特：承認Yuzu助長盜版現象</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -606,12 +606,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[閒聊] 上周英國遊戲銷售榜，FF7重生奪冠</t>
+          <t>Re: [閒聊]  Yuzu認賠和解</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,12 +623,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 我獨自升級08 the 拖</t>
+          <t>[妮姬] 【悲報】指揮官被抓進「籠」群組</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -640,12 +640,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 委託原繪師畫版權角的可行性</t>
+          <t>[閒聊] capcom highlights 3/8及12號</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -657,12 +657,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Re: [閒聊] FF7 重生結局心得（大雷</t>
+          <t>[單機] 遊戲主機面臨衰退，御三家該何去何從？</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -674,12 +674,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[閒聊] 關於Unlight的渦</t>
+          <t>Re: [閒聊] 不玩電動的族群幹嘛插手角色外觀？</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -691,12 +691,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 神麼鬼？非人哉，是九尾狐九月</t>
+          <t>Re: [閒聊] 齁跟虹對待員工的差異真的太大</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -708,12 +708,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[討論] 只選一部看的話推薦看哥殺還是芙莉蓮？？</t>
+          <t>[閒聊] 綽號</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -725,151 +725,83 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 芙莉蓮的魔法師太強了吧 職業平衡呢？</t>
+          <t>[公告] C_Chat板板規 v.17.0 暨好文補M區</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/05</t>
+          <t xml:space="preserve"> 4/24</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[閒聊]  Yuzu認賠和解</t>
+          <t xml:space="preserve">[公告] 第二屆最婆大會 &amp; 公告彙整 &amp; 閒聊區 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>爆</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/05</t>
+          <t xml:space="preserve"> 1/08</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[閒聊] 看孤獨搖滾會更愛彈吉他嗎？</t>
+          <t>[公告] 本板板務拜會沈伯洋委員討論內容摘要</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>爆</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/05</t>
+          <t xml:space="preserve"> 2/19</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Re: [閒聊] 不玩電動的族群幹嘛插手角色外觀？</t>
+          <t>[公告] C_Chat自即日起更改分級為限制級看板</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>爆</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3/05</t>
+          <t xml:space="preserve"> 2/22</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[公告] C_Chat板板規 v.17.0 暨好文補M區</t>
+          <t>[24冬] 冬番各作品首播時間</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4/24</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">[公告] 第二屆最婆大會 &amp; 公告彙整 &amp; 閒聊區 </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>爆</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1/08</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>[公告] 本板板務拜會沈伯洋委員討論內容摘要</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>爆</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/19</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>[公告] C_Chat自即日起更改分級為限制級看板</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>爆</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/22</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>[24冬] 冬番各作品首播時間</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>12/14</t>
         </is>
